--- a/Qi/Project/GS-1/code/output/Q1-1亿各个公司可借的钱.xlsx
+++ b/Qi/Project/GS-1/code/output/Q1-1亿各个公司可借的钱.xlsx
@@ -464,7 +464,7 @@
         <v>1000000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0781554375588894</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>1000000</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08714183740317823</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1120868316292763</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="15">
@@ -832,7 +832,7 @@
         <v>1000000</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08715154163539411</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="26">
@@ -912,7 +912,7 @@
         <v>1000000</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07746803700923921</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="31">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1120868316292763</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
@@ -944,7 +944,7 @@
         <v>1000000</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07745941102504732</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="33">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1179846681654454</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34">
@@ -976,7 +976,7 @@
         <v>1000000</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07746803700923921</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="35">
@@ -992,7 +992,7 @@
         <v>1000000</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05980296081863344</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="36">
@@ -1008,7 +1008,7 @@
         <v>1000000</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0781554375588894</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="37">
@@ -1024,7 +1024,7 @@
         <v>1000000</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07746803700923921</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38">
@@ -1040,7 +1040,7 @@
         <v>1000000</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08715154163539411</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="39">
@@ -1056,7 +1056,7 @@
         <v>1000000</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08731697374954821</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="40">
@@ -1072,7 +1072,7 @@
         <v>1000000</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07746803700923921</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="41">
@@ -1088,7 +1088,7 @@
         <v>1000000</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08715154163539411</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="42">
@@ -1104,7 +1104,7 @@
         <v>1000000</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07746803700923921</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="43">
@@ -1117,10 +1117,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1116942268610001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="44">
@@ -1136,7 +1136,7 @@
         <v>1000000</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08701056405901909</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="45">
@@ -1152,7 +1152,7 @@
         <v>1000000</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0781554375588894</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="46">
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1107161074876785</v>
+        <v>0.07736577093601227</v>
       </c>
     </row>
     <row r="47">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1120868316292763</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="49">
@@ -1216,7 +1216,7 @@
         <v>1000000</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08710264395922424</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="50">
@@ -1232,7 +1232,7 @@
         <v>1000000</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07745941102504732</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="51">
@@ -1248,7 +1248,7 @@
         <v>1000000</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08700476210564376</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="52">
@@ -1280,7 +1280,7 @@
         <v>1000000</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08715154163539411</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="54">
@@ -1296,7 +1296,7 @@
         <v>1000000</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06978214936098084</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="55">
@@ -1328,7 +1328,7 @@
         <v>1000000</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0781554375588894</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="57">
@@ -1344,7 +1344,7 @@
         <v>1000000</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08714183740317823</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="58">
@@ -1373,10 +1373,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1120868316292763</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="60">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1116942268610001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="61">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D61" t="n">
-        <v>0.102954935580492</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="62">
@@ -1424,7 +1424,7 @@
         <v>1000000</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06928134235553444</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="63">
@@ -1440,7 +1440,7 @@
         <v>1000000</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08696685411036016</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="64">
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1033345137163997</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="65">
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D66" t="n">
-        <v>0.103175861723721</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="67">
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1120868316292763</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="68">
@@ -1520,7 +1520,7 @@
         <v>1000000</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07745941102504732</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="69">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1115847954154015</v>
+        <v>0.07012670487165451</v>
       </c>
     </row>
     <row r="70">
@@ -1552,7 +1552,7 @@
         <v>1000000</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08724915409460665</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="71">
@@ -1565,10 +1565,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1192651230096817</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="72">
@@ -1584,7 +1584,7 @@
         <v>1000000</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08712819434702397</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="73">
@@ -1616,7 +1616,7 @@
         <v>1000000</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06953475227113814</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="75">
@@ -1632,7 +1632,7 @@
         <v>1000000</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08705623771995306</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="76">
@@ -1645,10 +1645,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1117561277747154</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="77">
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D77" t="n">
-        <v>0.09538928642868996</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="78">
@@ -1680,7 +1680,7 @@
         <v>1000000</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08727298267185689</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="79">
@@ -1696,7 +1696,7 @@
         <v>1000000</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08702793840318919</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="80">
@@ -1712,7 +1712,7 @@
         <v>1000000</v>
       </c>
       <c r="D80" t="n">
-        <v>0.08705525703728199</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="81">
@@ -1728,7 +1728,7 @@
         <v>1000000</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07746803700923921</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="82">
@@ -1744,7 +1744,7 @@
         <v>1000000</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06978707526344807</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="83">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1189851010590792</v>
+        <v>0.08472999185323715</v>
       </c>
     </row>
     <row r="84">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1105033859610558</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="85">
@@ -1792,7 +1792,7 @@
         <v>1000000</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08701491560786964</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="86">
@@ -1808,7 +1808,7 @@
         <v>1000000</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0692944806162268</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="87">
@@ -1824,7 +1824,7 @@
         <v>1000000</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06947505835909397</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="88">
@@ -1840,7 +1840,7 @@
         <v>1000000</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07813110172748568</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="89">
@@ -1856,7 +1856,7 @@
         <v>1000000</v>
       </c>
       <c r="D89" t="n">
-        <v>0.06941355075687171</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="90">
@@ -1872,7 +1872,7 @@
         <v>1000000</v>
       </c>
       <c r="D90" t="n">
-        <v>0.07822132453322413</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="91">
@@ -1888,7 +1888,7 @@
         <v>1000000</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08763686824589968</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="92">
@@ -1904,7 +1904,7 @@
         <v>1000000</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07746803700923921</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="93">
@@ -1920,7 +1920,7 @@
         <v>1000000</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08722894398495556</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="94">
@@ -1936,7 +1936,7 @@
         <v>1000000</v>
       </c>
       <c r="D94" t="n">
-        <v>0.06934717010706663</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="95">
@@ -1952,7 +1952,7 @@
         <v>1000000</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07866693615913392</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="96">
@@ -1984,7 +1984,7 @@
         <v>1000000</v>
       </c>
       <c r="D97" t="n">
-        <v>0.06933249538764358</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="98">
@@ -2000,7 +2000,7 @@
         <v>1000000</v>
       </c>
       <c r="D98" t="n">
-        <v>0.06954169163014741</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="99">
@@ -2016,7 +2016,7 @@
         <v>1000000</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07888702236115934</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="100">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D100" t="n">
-        <v>0.126690079420805</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="101">
@@ -2048,7 +2048,7 @@
         <v>1000000</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07857091277837755</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="102">
@@ -2064,7 +2064,7 @@
         <v>1000000</v>
       </c>
       <c r="D102" t="n">
-        <v>0.08684467110782863</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="103">
@@ -2080,7 +2080,7 @@
         <v>1000000</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07746803700923921</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="104">
@@ -2096,7 +2096,7 @@
         <v>1000000</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0875844674371183</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="105">
@@ -2112,7 +2112,7 @@
         <v>1000000</v>
       </c>
       <c r="D105" t="n">
-        <v>0.07830624148249628</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="106">
@@ -2144,7 +2144,7 @@
         <v>1000000</v>
       </c>
       <c r="D107" t="n">
-        <v>0.08692386969923974</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="108">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1023960069566965</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="109">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="D109" t="n">
-        <v>0.09580801166594029</v>
+        <v>0.04191988334059715</v>
       </c>
     </row>
     <row r="110">
@@ -2189,10 +2189,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1186524903029204</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="111">
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="D112" t="n">
-        <v>0.08628285828977825</v>
+        <v>0.04130157455801964</v>
       </c>
     </row>
     <row r="113">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D113" t="n">
-        <v>0.08628775700926782</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="114">
@@ -2256,7 +2256,7 @@
         <v>1000000</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07746803700923921</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="115">
@@ -2272,7 +2272,7 @@
         <v>1000000</v>
       </c>
       <c r="D115" t="n">
-        <v>0.09611257687211038</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="116">
@@ -2285,10 +2285,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0947384387254715</v>
+        <v>0.05261561274528503</v>
       </c>
     </row>
     <row r="117">
@@ -2301,10 +2301,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1186027839779854</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="118">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09481921978294849</v>
+        <v>0.05180780217051506</v>
       </c>
     </row>
     <row r="119">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D119" t="n">
-        <v>0.130588623136282</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="120">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="D120" t="n">
-        <v>0.09585500173270703</v>
+        <v>0.04144998267292976</v>
       </c>
     </row>
     <row r="121">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1029322213679552</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="122">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1181639117747545</v>
+        <v>0.09104683250188828</v>
       </c>
     </row>
     <row r="123">
@@ -2400,7 +2400,7 @@
         <v>1000000</v>
       </c>
       <c r="D123" t="n">
-        <v>0.09501822628080846</v>
+        <v>0.04981773719191551</v>
       </c>
     </row>
     <row r="124">
